--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/明細レイアウトの作成.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/明細レイアウトの作成.xlsx
@@ -498,10 +498,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
@@ -674,6 +670,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="justify" indent="1"/>
     </xf>
@@ -682,9 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -44473,7 +44469,9 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="9.75"/>
   <cols>
@@ -44517,7 +44515,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -44529,7 +44527,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -44541,7 +44539,7 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -44553,7 +44551,7 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -44612,7 +44610,7 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -44624,7 +44622,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -44636,7 +44634,7 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -44648,7 +44646,7 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -44684,7 +44682,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -44696,7 +44694,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -44709,15 +44707,15 @@
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -44732,7 +44730,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ 明朝,Regular"&amp;8ログイン会社名称&amp;"Meiryo UI,Regular"&amp;10
 &amp;C&amp;"ＭＳ 明朝,Regular"&amp;14明細書レイアウト&amp;R&amp;"ＭＳ 明朝,Regular"&amp;D　&amp;T
-&amp;N</oddHeader>
+&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>